--- a/biology/Botanique/Dewi_Sri/Dewi_Sri.xlsx
+++ b/biology/Botanique/Dewi_Sri/Dewi_Sri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Indonésie, Dewi Sri (ꦢꦺꦮꦶꦱꦿꦶ en javanais), "la déesse Sri", est la déesse de la fertilité et du riz. C'est un autre nom de Lakshmi[1] (Sri ou Sri Devi), à laquelle elle sera associée lors de l'indianisation de l'Insulinde[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Indonésie, Dewi Sri (ꦢꦺꦮꦶꦱꦿꦶ en javanais), "la déesse Sri", est la déesse de la fertilité et du riz. C'est un autre nom de Lakshmi (Sri ou Sri Devi), à laquelle elle sera associée lors de l'indianisation de l'Insulinde,.
 À Java, la tradition exige qu'un coin de la maison, tenu secret, lui soit consacré.
 Chez les Bugis du sud de l'île de Sulawesi, elle s'appelle Sangiang Serri, et est, dans l'épopée La Galigo, le premier enfant terrestre de Batara Guru, fils de Datu Patoto, la divinité suprême du panthéon bugis. Sangiang Serri meurt au bout de sept jours, est enterrée et renaît sous la forme du riz.
 </t>
